--- a/Dataset/df_hechos.xlsx
+++ b/Dataset/df_hechos.xlsx
@@ -3793,8 +3793,12 @@
           <t>Point (. .)</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
       <c r="R40" t="inlineStr">
         <is>
           <t>MOTO-SD</t>
@@ -9501,8 +9505,12 @@
           <t>Point (. .)</t>
         </is>
       </c>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
       <c r="R108" t="inlineStr">
         <is>
           <t>MOTO-CARGAS</t>
@@ -10589,8 +10597,12 @@
           <t>Point (. .)</t>
         </is>
       </c>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
+      <c r="P121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
       <c r="R121" t="inlineStr">
         <is>
           <t>PEATON-SD</t>
@@ -12265,8 +12277,12 @@
           <t>Point (. .)</t>
         </is>
       </c>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
+      <c r="P141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>0</v>
+      </c>
       <c r="R141" t="inlineStr">
         <is>
           <t>SD-SD</t>
@@ -15369,8 +15385,12 @@
           <t>Point (. .)</t>
         </is>
       </c>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
+      <c r="P178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>0</v>
+      </c>
       <c r="R178" t="inlineStr">
         <is>
           <t>MOTO-CARGAS</t>
@@ -15701,8 +15721,12 @@
           <t>Point (. .)</t>
         </is>
       </c>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
+      <c r="P182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>0</v>
+      </c>
       <c r="R182" t="inlineStr">
         <is>
           <t>MOTO-CARGAS</t>
@@ -15781,8 +15805,12 @@
           <t>Point (. .)</t>
         </is>
       </c>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
+      <c r="P183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>0</v>
+      </c>
       <c r="R183" t="inlineStr">
         <is>
           <t>AUTO-AUTO</t>
@@ -22077,8 +22105,12 @@
           <t>Point (. .)</t>
         </is>
       </c>
-      <c r="P258" t="inlineStr"/>
-      <c r="Q258" t="inlineStr"/>
+      <c r="P258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>0</v>
+      </c>
       <c r="R258" t="inlineStr">
         <is>
           <t>MOTO-PASAJEROS</t>
@@ -26861,8 +26893,12 @@
           <t>Point (. .)</t>
         </is>
       </c>
-      <c r="P315" t="inlineStr"/>
-      <c r="Q315" t="inlineStr"/>
+      <c r="P315" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>0</v>
+      </c>
       <c r="R315" t="inlineStr">
         <is>
           <t>PEATON-AUTO</t>
@@ -37401,8 +37437,10 @@
       <c r="F441" t="n">
         <v>15</v>
       </c>
-      <c r="G441" s="2" t="n">
-        <v>2</v>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="H441" t="n">
         <v>0</v>
@@ -37567,8 +37605,10 @@
       <c r="F443" t="n">
         <v>19</v>
       </c>
-      <c r="G443" s="2" t="n">
-        <v>14.3</v>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>07:12:00</t>
+        </is>
       </c>
       <c r="H443" t="n">
         <v>7</v>
@@ -42185,8 +42225,10 @@
       <c r="F498" t="n">
         <v>17</v>
       </c>
-      <c r="G498" s="2" t="n">
-        <v>4.777777777777778</v>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>18:40:00</t>
+        </is>
       </c>
       <c r="H498" t="n">
         <v>18</v>
@@ -44031,11 +44073,7 @@
       <c r="F520" t="n">
         <v>18</v>
       </c>
-      <c r="G520" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
+      <c r="G520" t="inlineStr"/>
       <c r="H520" t="n">
         <v>12</v>
       </c>
@@ -46424,8 +46462,12 @@
           <t>Point (. .)</t>
         </is>
       </c>
-      <c r="P548" t="inlineStr"/>
-      <c r="Q548" t="inlineStr"/>
+      <c r="P548" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q548" t="n">
+        <v>0</v>
+      </c>
       <c r="R548" t="inlineStr">
         <is>
           <t>MOTO-OBJETO FIJO</t>
@@ -47512,8 +47554,12 @@
           <t>Point (. .)</t>
         </is>
       </c>
-      <c r="P561" t="inlineStr"/>
-      <c r="Q561" t="inlineStr"/>
+      <c r="P561" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q561" t="n">
+        <v>0</v>
+      </c>
       <c r="R561" t="inlineStr">
         <is>
           <t>PEATON-CARGAS</t>
@@ -52716,8 +52762,12 @@
           <t>Point (. .)</t>
         </is>
       </c>
-      <c r="P623" t="inlineStr"/>
-      <c r="Q623" t="inlineStr"/>
+      <c r="P623" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q623" t="n">
+        <v>0</v>
+      </c>
       <c r="R623" t="inlineStr">
         <is>
           <t>MOTO-CARGAS</t>
